--- a/Remote/ug16/Données/04/dist_users.xlsx
+++ b/Remote/ug16/Données/04/dist_users.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Mickaël\Documents\GitHub\ductaironline\Remote\ug16\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Mickaël\Documents\GitHub\ductaironline\Remote\ug16\Données\04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BE5200-4B9F-4ABB-90D4-DFAD89547A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B05E67-5E84-4258-A16D-460FD4F61DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11295" xr2:uid="{FB319E84-7C88-461F-9183-805C577E13FE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FB319E84-7C88-461F-9183-805C577E13FE}"/>
   </bookViews>
   <sheets>
     <sheet name="dist_users" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="74">
   <si>
     <t>ID</t>
   </si>
@@ -158,45 +158,6 @@
     <t>71645</t>
   </si>
   <si>
-    <t>FOUCAULT</t>
-  </si>
-  <si>
-    <t>Denis</t>
-  </si>
-  <si>
-    <t>FOUCAULT Denis</t>
-  </si>
-  <si>
-    <t>FD</t>
-  </si>
-  <si>
-    <t>Rue de la Grande Epine</t>
-  </si>
-  <si>
-    <t>d.foucault@ouestisol.fr</t>
-  </si>
-  <si>
-    <t>81635</t>
-  </si>
-  <si>
-    <t>JEANNE</t>
-  </si>
-  <si>
-    <t>Thibault</t>
-  </si>
-  <si>
-    <t>JEANNE Thibault</t>
-  </si>
-  <si>
-    <t>JT</t>
-  </si>
-  <si>
-    <t>t.jeanne@ouestisol.fr</t>
-  </si>
-  <si>
-    <t>61638</t>
-  </si>
-  <si>
     <t>LAUNAY</t>
   </si>
   <si>
@@ -281,22 +242,7 @@
     <t>Agence Ouest Isol &amp; Ventil CAEN</t>
   </si>
   <si>
-    <t>Agence Ouest Isol &amp; Ventil ROUEN</t>
-  </si>
-  <si>
     <t>lien_maj</t>
-  </si>
-  <si>
-    <t>ZI Est – CS 50561</t>
-  </si>
-  <si>
-    <t>ZI Est – CS 50562</t>
-  </si>
-  <si>
-    <t>SAINT ETIENNE DU ROUVRAY</t>
-  </si>
-  <si>
-    <t>02 35 65 15 30</t>
   </si>
   <si>
     <t>02 31 75 11 65</t>
@@ -324,7 +270,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0#&quot; &quot;##&quot; &quot;##&quot; &quot;##&quot; &quot;##"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -339,11 +285,6 @@
       <sz val="11"/>
       <color rgb="FF252837"/>
       <name val="Roboto Regular"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -372,13 +313,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -715,10 +655,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC3CA6B-FB29-4380-902E-31E635E78025}">
   <sheetPr codeName="Feuil38"/>
-  <dimension ref="A1:V10"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -811,7 +751,7 @@
         <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="14.25">
@@ -843,7 +783,7 @@
         <v>4</v>
       </c>
       <c r="J2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -858,7 +798,7 @@
         <v>27</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="P2" t="s">
         <v>28</v>
@@ -909,7 +849,7 @@
         <v>4</v>
       </c>
       <c r="J3" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="K3" t="s">
         <v>25</v>
@@ -924,7 +864,7 @@
         <v>27</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="P3" t="s">
         <v>28</v>
@@ -957,46 +897,46 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="H4">
         <v>16</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J4" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>82</v>
+        <v>25</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
       </c>
       <c r="M4">
-        <v>76808</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>84</v>
+        <v>14791</v>
+      </c>
+      <c r="N4" t="s">
+        <v>27</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="P4" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" t="s">
-        <v>44</v>
+      <c r="Q4" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="R4" t="s">
         <v>30</v>
@@ -1005,7 +945,7 @@
         <v>46023</v>
       </c>
       <c r="T4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="U4" t="s">
         <v>32</v>
@@ -1023,16 +963,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="H5">
         <v>16</v>
@@ -1041,7 +981,7 @@
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="K5" t="s">
         <v>25</v>
@@ -1050,28 +990,28 @@
         <v>26</v>
       </c>
       <c r="M5">
-        <v>14791</v>
+        <v>14790</v>
       </c>
       <c r="N5" t="s">
         <v>27</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="P5" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="3" t="s">
-        <v>91</v>
+      <c r="Q5" t="s">
+        <v>43</v>
       </c>
       <c r="R5" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="S5" s="1">
         <v>46023</v>
       </c>
       <c r="T5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="U5" t="s">
         <v>32</v>
@@ -1104,31 +1044,31 @@
         <v>16</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="K6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>83</v>
+        <v>25</v>
+      </c>
+      <c r="L6" t="s">
+        <v>50</v>
       </c>
       <c r="M6">
-        <v>76809</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>84</v>
+        <v>14791</v>
+      </c>
+      <c r="N6" t="s">
+        <v>27</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="P6" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="Q6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R6" t="s">
         <v>30</v>
@@ -1137,7 +1077,7 @@
         <v>46023</v>
       </c>
       <c r="T6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U6" t="s">
         <v>32</v>
@@ -1152,19 +1092,19 @@
         <v>45696</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H7">
         <v>16</v>
@@ -1173,7 +1113,7 @@
         <v>4</v>
       </c>
       <c r="J7" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="K7" t="s">
         <v>25</v>
@@ -1188,22 +1128,22 @@
         <v>27</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="P7" t="s">
         <v>28</v>
       </c>
       <c r="Q7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="R7" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="S7" s="1">
         <v>46023</v>
       </c>
       <c r="T7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U7" t="s">
         <v>32</v>
@@ -1218,19 +1158,19 @@
         <v>45696</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H8">
         <v>16</v>
@@ -1239,179 +1179,47 @@
         <v>4</v>
       </c>
       <c r="J8" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="K8" t="s">
         <v>25</v>
       </c>
       <c r="L8" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="M8">
-        <v>14791</v>
+        <v>14790</v>
       </c>
       <c r="N8" t="s">
         <v>27</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="P8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q8" t="s">
         <v>64</v>
       </c>
-      <c r="Q8" t="s">
-        <v>65</v>
-      </c>
       <c r="R8" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="S8" s="1">
         <v>46023</v>
       </c>
       <c r="T8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="U8" t="s">
         <v>32</v>
       </c>
       <c r="V8" s="3"/>
     </row>
-    <row r="9" spans="1:22" ht="14.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>45696</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9">
-        <v>16</v>
-      </c>
-      <c r="I9">
-        <v>4</v>
-      </c>
-      <c r="J9" t="s">
-        <v>79</v>
-      </c>
-      <c r="K9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" t="s">
-        <v>26</v>
-      </c>
-      <c r="M9">
-        <v>14790</v>
-      </c>
-      <c r="N9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="P9" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>71</v>
-      </c>
-      <c r="R9" t="s">
-        <v>30</v>
-      </c>
-      <c r="S9" s="1">
-        <v>46023</v>
-      </c>
-      <c r="T9" t="s">
-        <v>72</v>
-      </c>
-      <c r="U9" t="s">
-        <v>32</v>
-      </c>
-      <c r="V9" s="3"/>
-    </row>
-    <row r="10" spans="1:22" ht="14.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>45696</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H10">
-        <v>16</v>
-      </c>
-      <c r="I10">
-        <v>4</v>
-      </c>
-      <c r="J10" t="s">
-        <v>79</v>
-      </c>
-      <c r="K10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10">
-        <v>14790</v>
-      </c>
-      <c r="N10" t="s">
-        <v>27</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="P10" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>77</v>
-      </c>
-      <c r="R10" t="s">
-        <v>57</v>
-      </c>
-      <c r="S10" s="1">
-        <v>46023</v>
-      </c>
-      <c r="T10" t="s">
-        <v>78</v>
-      </c>
-      <c r="U10" t="s">
-        <v>32</v>
-      </c>
-      <c r="V10" s="3"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Q5" r:id="rId1" xr:uid="{3463426B-B927-4144-874B-D4A6866CFF40}"/>
+    <hyperlink ref="Q4" r:id="rId1" xr:uid="{3463426B-B927-4144-874B-D4A6866CFF40}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
